--- a/excel/VALIDAR_URL_RESULTADO.xlsx
+++ b/excel/VALIDAR_URL_RESULTADO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>33581</v>
+        <v>27942</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>XFRA</t>
+          <t>FNCOT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -489,16 +489,16 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45792</v>
+        <v>45791</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Reembolso serie 22 22/05/2025</t>
+          <t>Aviso a tenedores serie 24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=12832&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-14&amp;fechaFin=2025-05-14&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=3589&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-14&amp;fechaFin=2025-05-14&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -509,11 +509,11 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>25283</v>
+        <v>28805</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DLRTRAC</t>
+          <t>HSBC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,12 +526,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cartera de TRACs</t>
+          <t>Reporte anual 2024</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1907&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-14&amp;fechaFin=2025-05-14&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=2745&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-14&amp;fechaFin=2025-05-14&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -542,11 +542,11 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>25284</v>
+        <v>29830</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DLRTRAC</t>
+          <t>NEXX6CK</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,12 +559,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cartera de TRACs</t>
+          <t>Actualización de la inscripción serie 13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1907&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-14&amp;fechaFin=2025-05-14&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1865&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-14&amp;fechaFin=2025-05-14&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -575,11 +575,11 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>26943</v>
+        <v>31415</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FHIPO</t>
+          <t>PSOTRAC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,17 +592,2723 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Acta de asamblea Tenedores de títulos Serie 14 06/05/2025</t>
+          <t>Cartera de TRACs</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1802&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-13&amp;fechaFin=2025-05-13&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1909&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-14&amp;fechaFin=2025-05-14&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>31416</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PSOTRAC</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cartera de TRACs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1909&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-14&amp;fechaFin=2025-05-14&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25282</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DLRTRAC</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cartera de TRACs</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1907&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-13&amp;fechaFin=2025-05-13&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>27813</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FICAPEX</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aviso a tenedores serie 00125</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=5062&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-13&amp;fechaFin=2025-05-13&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>30054</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NEXX6CK</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Convocatoria de asamblea Tenedores de títulos Serie 13 29/05/2025</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1865&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-13&amp;fechaFin=2025-05-13&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>31417</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PSOTRAC</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Cartera de TRACs</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1909&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-13&amp;fechaFin=2025-05-13&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>23399</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ACTINVR</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Aviso a tenedores serie 24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1678&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-12&amp;fechaFin=2025-05-12&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>28973</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HSBC</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Aviso a tenedores serie 24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=2745&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-12&amp;fechaFin=2025-05-12&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>25281</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DLRTRAC</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45787</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cartera de TRACs</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1907&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-10&amp;fechaFin=2025-05-10&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>31418</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PSOTRAC</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45787</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cartera de TRACs</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1909&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-10&amp;fechaFin=2025-05-10&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>26189</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>EDUCA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Serie 18 - FIBRA EDUCA ANUNCIA EL PROCESO DE PUESTA EN CIRCULACIÓN DE 10,332 CERTIFICADOS BURSÁTILES FIDUCIARIOS INMOBILIARIOS ("CBFIS") ACTUALMENTE EN TESORERÍA.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1811&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-09&amp;fechaFin=2025-05-09&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>28974</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HSBC</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Aviso a tenedores serie 24-2</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=2745&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-09&amp;fechaFin=2025-05-09&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>28975</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HSBC</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Aviso a tenedores serie 24D</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=2745&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-09&amp;fechaFin=2025-05-09&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>30368</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NXXMFCK</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Avisos corporativos serie 18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1846&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-09&amp;fechaFin=2025-05-09&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>30578</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NXXMFCK</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Reembolso serie 18 23/05/2025</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1846&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-09&amp;fechaFin=2025-05-09&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>24010</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BANOB</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Aviso a tenedores serie 21-2X</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=2872&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-08&amp;fechaFin=2025-05-08&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>25279</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DLRTRAC</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Cartera de TRACs</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1907&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-08&amp;fechaFin=2025-05-08&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>25280</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DLRTRAC</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Cartera de TRACs</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1907&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-08&amp;fechaFin=2025-05-08&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>26190</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>EDUCA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Serie 18 - INVITACIÓN A LA CONFERENCIA TELEFÓNICA DE LOS RESULTADOS DEL PRIMER TRIMESTRE DEL 2025.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1811&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-08&amp;fechaFin=2025-05-08&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>26968</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FHIPO</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Acuerdos de asamblea Tenedores de títulos Serie 14 06/05/2025</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1802&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-08&amp;fechaFin=2025-05-08&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>26969</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FHIPO</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Distribución en efectivo serie 14 15/05/2025</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1802&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-08&amp;fechaFin=2025-05-08&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26970</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FHIPO</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Serie 14 - COMUNICADO SOBRE LA DISTRIBUCIÓN DEL FIDEICOMISO HIPOTECARIO (FHIPO)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1802&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-08&amp;fechaFin=2025-05-08&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>28694</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GPH</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Evento Relevante</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1707&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-08&amp;fechaFin=2025-05-08&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28976</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>HSBC</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Informe del comisario 30/04/2025</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=2745&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-08&amp;fechaFin=2025-05-08&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28977</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>HSBC</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Informe del presidente del consejo de administración 30/04/2025</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=2745&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-08&amp;fechaFin=2025-05-08&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28978</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>HSBC</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Documentos suscritos por auditor externo 30/04/2025</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=2745&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-08&amp;fechaFin=2025-05-08&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>28979</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>HSBC</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Estados financieros dictaminados 30/04/2025</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=2745&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-08&amp;fechaFin=2025-05-08&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>28980</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>HSBC</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Información trimestral 4D-2024</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=2745&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-08&amp;fechaFin=2025-05-08&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>29044</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>HSBC</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Constancia trimestral 4D-2024</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=2745&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-08&amp;fechaFin=2025-05-08&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>31419</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PSOTRAC</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Cartera de TRACs</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1909&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-08&amp;fechaFin=2025-05-08&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>31420</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PSOTRAC</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Cartera de TRACs</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1909&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-08&amp;fechaFin=2025-05-08&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>32711</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>VASCONI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Fitch Baja Calificaciones de Grupo Vasconia a 'D(mex)'</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1649&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-08&amp;fechaFin=2025-05-08&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>25278</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DLRTRAC</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Cartera de TRACs</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1907&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-07&amp;fechaFin=2025-05-07&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>26965</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>FHIPO</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Estados financieros dictaminados 2024 Fideicomiso 2061</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1802&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-07&amp;fechaFin=2025-05-07&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>26966</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>FHIPO</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Documentos suscritos por auditor externo 2024 Fideicomiso 2061</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1802&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-07&amp;fechaFin=2025-05-07&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>26967</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FHIPO</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Reporte anual 2024 Fideicomiso 2061</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1802&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-07&amp;fechaFin=2025-05-07&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>26973</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FHIPOCB</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Documentos suscritos por auditor externo 2024 Fideicomiso F/4730</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=3983&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-07&amp;fechaFin=2025-05-07&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>27386</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>FHIPOCB</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Reporte anual 2024 Fideicomiso F/4395</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=3983&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-07&amp;fechaFin=2025-05-07&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>27387</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>FHIPOCB</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Reporte anual 2024 Fideicomiso F/4205</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=3983&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-07&amp;fechaFin=2025-05-07&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>27464</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>FHIPOCB</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Estados financieros dictaminados 2024 Fideicomiso F/4730</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=3983&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-07&amp;fechaFin=2025-05-07&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>27465</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>FHIPOCB</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Documentos suscritos por auditor externo 2024 Fideicomiso F/4575</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=3983&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-07&amp;fechaFin=2025-05-07&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>27466</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>FHIPOCB</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Estados financieros dictaminados 2024 Fideicomiso F/4575</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=3983&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-07&amp;fechaFin=2025-05-07&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>27467</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>FHIPOCB</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Documentos suscritos por auditor externo 2024 Fideicomiso F/4395</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=3983&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-07&amp;fechaFin=2025-05-07&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>27468</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>FHIPOCB</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Estados financieros dictaminados 2024 Fideicomiso F/4395</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=3983&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-07&amp;fechaFin=2025-05-07&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>27469</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>FHIPOCB</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Documentos suscritos por auditor externo 2024 Fideicomiso F/4205</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=3983&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-07&amp;fechaFin=2025-05-07&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>27470</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>FHIPOCB</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Estados financieros dictaminados 2024 Fideicomiso F/4205</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=3983&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-07&amp;fechaFin=2025-05-07&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>27471</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>FHIPOCB</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Reporte anual 2024 Fideicomiso F/4730</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=3983&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-07&amp;fechaFin=2025-05-07&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>27472</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>FHIPOCB</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Reporte anual 2024 Fideicomiso F/4575</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=3983&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-07&amp;fechaFin=2025-05-07&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>28190</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>FNCOT</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Retransmisión del Reporte Anual 2024 y Constancia Anual 2024</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=3589&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-07&amp;fechaFin=2025-05-07&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>28555</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>GASA</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Cambio en consejo</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=23414&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-07&amp;fechaFin=2025-05-07&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>29045</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>HSBC</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>***HSBC Mexico Comunica - Ratificación Directivo Relevante CFO LAM &amp; México</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=2745&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-07&amp;fechaFin=2025-05-07&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>31421</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>PSOTRAC</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Cartera de TRACs</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1909&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-07&amp;fechaFin=2025-05-07&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>23526</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ACTINVR</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Informe del consejo de administración sobre las operaciones y actividades en las que intervino 29/04/2025</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1678&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>23527</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ACTINVR</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Informe del director general 29/04/2025</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1678&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>23528</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ACTINVR</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Opinión del consejo de administración sobre el contenido del informe del director general 29/04/2025</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1678&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>23529</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ACTINVR</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Actualización de libros 29/04/2025</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1678&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>23530</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ACTINVR</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Informe de principales políticas y criterios contables 29/04/2025</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1678&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>23531</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ACTINVR</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Informe del comité de auditoría 29/04/2025</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1678&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>23532</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ACTINVR</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Informe del comité de prácticas societarias 29/04/2025</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1678&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>23707</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ANGELD</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Información trimestral 4D-2024 Fideicomiso F0770</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1890&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>24757</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>DALUSCK</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Información trimestral 4D-2024 Fideicomiso 2839</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1841&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>24853</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>DIABLOI</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Información trimestral 4D-2024 Fideicomiso F0771</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1906&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>26191</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>EDUCA</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Información trimestral 4D-2024</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1811&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>26250</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ELEKTRA</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Aviso a tenedores serie 00224</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1647&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>26963</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>FHIPO</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Información trimestral 4D-2024 Fideicomiso 2061</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1802&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>26964</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>FHIPO</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Constancia trimestral 4D-2024 Fideicomiso 2061</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1802&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>27905</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>FIDEAL</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Información trimestral 4D-2024 Fideicomiso 3935</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=3736&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>28189</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>FNCOT</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Estados financieros dictaminados 20/03/2025</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=3589&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>28573</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>GASA</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Información trimestral 4D-2024</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=23414&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>29322</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>KOF</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>KOF Anuncia Cierre de Senior Notes</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1776&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>30049</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>NEXX6CK</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Estados financieros dictaminados 2024 Fideicomiso 17318-3</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1865&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>30050</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>NEXX6CK</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Documentos suscritos por auditor externo 2024 Fideicomiso 17318-3</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1865&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>30051</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>NEXX6CK</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Reporte anual 2024 Fideicomiso 17318-3</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1865&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>30052</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>NEXX6CK</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Constancia trimestral 4D-2024 Fideicomiso 17318-3</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1865&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>30053</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>NEXX6CK</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Información trimestral 4D-2024 Fideicomiso 17318-3</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1865&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>30574</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>NXXMFCK</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Información trimestral 4D-2024 Fideicomiso 5305</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1846&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>30575</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>NXXMFCK</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Constancia trimestral 4D-2024 Fideicomiso 5305</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1846&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>30576</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>NXXMFCK</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Estados financieros dictaminados 2024 Fideicomiso 5305</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1846&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>30577</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>NXXMFCK</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Documentos suscritos por auditor externo 2024 Fideicomiso 5305</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=1846&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>31799</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>STEPCB</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Aviso de extemporaneidad Constancia trimestral Fideicomiso F/8068</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=9087&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>31920</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>STEPCB</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Aviso de extemporaneidad Información trimestral Fideicomiso F/8068</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=9087&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>31921</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>STEPCB</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Aviso de extemporaneidad Constancia trimestral Fideicomiso F/8068</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=9087&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>31922</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>STEPCB</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Banco de Información</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Aviso de extemporaneidad Información trimestral Fideicomiso F/8068</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://www.biva.mx/empresas/emisoras_inscritas/emisoras_inscritas?emisora_id=9087&amp;tipoInformacion=null&amp;tipoDocumento=null&amp;fechaInicio=2025-05-06&amp;fechaFin=2025-05-06&amp;periodo=null&amp;ejercicio=null&amp;tipo=null&amp;subTab=2&amp;biva=null&amp;canceladas=false&amp;page=1</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
